--- a/Fase 2/Evidencias Proyecto/Evidencias de documentación/Epicas y Historias de usuario.xlsx
+++ b/Fase 2/Evidencias Proyecto/Evidencias de documentación/Epicas y Historias de usuario.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_211\Documents\GitHub\2024_2_PO_CAPSTONE_001D_GRUPO_2\Fase 2\Evidencias Proyecto\Evidencias de documentación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\devia\Desktop\2024_2_PO_CAPSTONE_001D_GRUPO_2\Fase 2\Evidencias Proyecto\Evidencias de documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4756F70D-9088-4941-B976-64CB1030A282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E706556B-B70D-4407-B268-AA7972AF328C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Epicas" sheetId="3" r:id="rId1"/>
@@ -289,7 +289,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -322,12 +322,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF4F4F4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -335,6 +329,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEEEEEE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -367,7 +391,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -394,32 +418,44 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -763,19 +799,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B71CC772-1B7D-4F8C-A429-9CC64CFA1080}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="34" customWidth="1"/>
     <col min="2" max="2" width="31.5" customWidth="1"/>
-    <col min="3" max="3" width="47.25" customWidth="1"/>
-    <col min="4" max="4" width="42.875" customWidth="1"/>
+    <col min="3" max="3" width="47.19921875" customWidth="1"/>
+    <col min="4" max="4" width="42.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -783,87 +819,87 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="108" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+    <row r="3" spans="1:4" ht="105.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="18">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+    <row r="4" spans="1:4" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="19">
         <v>2</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="121.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+    <row r="5" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+      <c r="A5" s="20">
         <v>3</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+    <row r="6" spans="1:4" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="21">
         <v>4</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="121.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+    <row r="7" spans="1:4" ht="118.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="22">
         <v>5</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -880,28 +916,28 @@
   </sheetPr>
   <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.875" customWidth="1"/>
-    <col min="3" max="3" width="24.25" customWidth="1"/>
-    <col min="4" max="5" width="48.75" customWidth="1"/>
-    <col min="6" max="6" width="3.25" customWidth="1"/>
+    <col min="1" max="1" width="3.19921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.8984375" customWidth="1"/>
+    <col min="3" max="3" width="24.19921875" customWidth="1"/>
+    <col min="4" max="5" width="48.69921875" customWidth="1"/>
+    <col min="6" max="6" width="3.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>65</v>
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
@@ -923,17 +959,17 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
+    <row r="3" spans="1:13" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>23</v>
       </c>
       <c r="F3" s="1"/>
@@ -945,17 +981,17 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="10" t="s">
+    <row r="4" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="17" t="s">
         <v>25</v>
       </c>
       <c r="F4" s="1"/>
@@ -967,17 +1003,17 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
+    <row r="5" spans="1:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="12" t="s">
         <v>27</v>
       </c>
       <c r="F5" s="1"/>
@@ -989,17 +1025,17 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
+    <row r="6" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>29</v>
       </c>
       <c r="F6" s="1"/>
@@ -1011,17 +1047,17 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
+    <row r="7" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="12" t="s">
         <v>31</v>
       </c>
       <c r="F7" s="1"/>
@@ -1033,17 +1069,17 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="10" t="s">
+    <row r="8" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="12" t="s">
         <v>38</v>
       </c>
       <c r="F8" s="1"/>
@@ -1055,17 +1091,17 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
+    <row r="9" spans="1:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="12" t="s">
         <v>40</v>
       </c>
       <c r="F9" s="1"/>
@@ -1077,17 +1113,17 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="10" t="s">
+    <row r="10" spans="1:13" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="12" t="s">
         <v>44</v>
       </c>
       <c r="F10" s="1"/>
@@ -1099,17 +1135,17 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
+    <row r="11" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="12" t="s">
         <v>46</v>
       </c>
       <c r="F11" s="1"/>
@@ -1121,17 +1157,17 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="10" t="s">
+    <row r="12" spans="1:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="12" t="s">
         <v>50</v>
       </c>
       <c r="F12" s="1"/>
@@ -1143,17 +1179,17 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
+    <row r="13" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="12" t="s">
         <v>52</v>
       </c>
       <c r="F13" s="1"/>
@@ -1165,17 +1201,17 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="10" t="s">
+    <row r="14" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="12" t="s">
         <v>54</v>
       </c>
       <c r="F14" s="1"/>
@@ -1187,17 +1223,17 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="10" t="s">
+    <row r="15" spans="1:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F15" s="1"/>
@@ -1209,17 +1245,17 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="10" t="s">
+    <row r="16" spans="1:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="12" t="s">
         <v>60</v>
       </c>
       <c r="F16" s="1"/>
@@ -1231,7 +1267,7 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1245,7 +1281,7 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1259,7 +1295,7 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1273,7 +1309,7 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1287,7 +1323,7 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1301,7 +1337,7 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="2:13" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1315,13 +1351,13 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="2:13" s="9" customFormat="1" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" s="9" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1335,7 +1371,7 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1349,7 +1385,7 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1363,7 +1399,7 @@
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1377,7 +1413,7 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1391,7 +1427,7 @@
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1405,7 +1441,7 @@
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1419,7 +1455,7 @@
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1433,7 +1469,7 @@
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1447,7 +1483,7 @@
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1461,7 +1497,7 @@
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1475,7 +1511,7 @@
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1489,7 +1525,7 @@
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1503,7 +1539,7 @@
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1517,7 +1553,7 @@
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1531,7 +1567,7 @@
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1545,7 +1581,7 @@
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1559,7 +1595,7 @@
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1573,7 +1609,7 @@
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1587,7 +1623,7 @@
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1601,7 +1637,7 @@
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1615,7 +1651,7 @@
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1629,7 +1665,7 @@
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1643,7 +1679,7 @@
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1657,7 +1693,7 @@
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1671,7 +1707,7 @@
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1685,7 +1721,7 @@
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1699,7 +1735,7 @@
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1713,7 +1749,7 @@
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1727,7 +1763,7 @@
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1741,7 +1777,7 @@
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1755,7 +1791,7 @@
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1769,7 +1805,7 @@
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1783,7 +1819,7 @@
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1797,7 +1833,7 @@
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1811,7 +1847,7 @@
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1825,7 +1861,7 @@
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1839,7 +1875,7 @@
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1853,7 +1889,7 @@
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1867,7 +1903,7 @@
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1881,7 +1917,7 @@
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
     </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1895,7 +1931,7 @@
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
     </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1909,7 +1945,7 @@
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
     </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>

--- a/Fase 2/Evidencias Proyecto/Evidencias de documentación/Epicas y Historias de usuario.xlsx
+++ b/Fase 2/Evidencias Proyecto/Evidencias de documentación/Epicas y Historias de usuario.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\devia\Desktop\2024_2_PO_CAPSTONE_001D_GRUPO_2\Fase 2\Evidencias Proyecto\Evidencias de documentación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6D1182-4240-43F3-8970-3A6B9187C749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64A7783-5AAD-4D27-8897-F7C0A1324EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Epicas" sheetId="1" r:id="rId1"/>
@@ -18,15 +18,27 @@
     <sheet name="Product Backlog - Alas Coffee" sheetId="3" r:id="rId3"/>
     <sheet name="Sprint Planing" sheetId="4" r:id="rId4"/>
     <sheet name="Sprint Backlong" sheetId="5" r:id="rId5"/>
-    <sheet name="Sprint Burndown chart" sheetId="6" r:id="rId6"/>
-    <sheet name="Planning Poker - Alas Coffee" sheetId="7" r:id="rId7"/>
+    <sheet name="Planning Poker - Alas Coffee" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="188">
   <si>
     <t>Epicas</t>
   </si>
@@ -289,15 +301,9 @@
     <t>Sprint Asignado</t>
   </si>
   <si>
-    <t>Como cajero, quiero poder registrarme en la página web para hacer pedidos y gestionar mis datos.</t>
-  </si>
-  <si>
     <t>Alta</t>
   </si>
   <si>
-    <t>El cliente puede crear una cuenta con email, contraseña y ver sus datos. Validación de email.</t>
-  </si>
-  <si>
     <t>5 puntos</t>
   </si>
   <si>
@@ -307,144 +313,36 @@
     <t>Como administrador, quiero gestionar el menú (agregar, eliminar, editar productos) en tiempo real.</t>
   </si>
   <si>
-    <t>El administrador puede agregar nuevos productos, editar sus características (precio, nombre, descripción) y eliminar productos.</t>
-  </si>
-  <si>
     <t>8 puntos</t>
   </si>
   <si>
-    <t xml:space="preserve">Como cajero, quiero ver el menú actualizado para saber lo que tengo como menu </t>
-  </si>
-  <si>
-    <t>El cliente ve el menú completo y actualizado en la página web, con fotos, precios y descripciones de los productos.</t>
-  </si>
-  <si>
-    <t>Como mesero, quiero tomar pedidos desde la tablet y enviarlos al área de cocina de forma automática.</t>
-  </si>
-  <si>
-    <t>Los meseros pueden agregar productos a un pedido desde una interfaz de tablet y enviar las órdenes en tiempo real al área de cocina.</t>
-  </si>
-  <si>
-    <t>Como administrador quiero poder ver el estado del pedido y saber el timpo estimado del pedido</t>
-  </si>
-  <si>
-    <t>Integración con una pasarela de pagos que permita al cliente pagar de forma segura y recibir confirmación del pago.</t>
-  </si>
-  <si>
-    <t>Como cocinero, quiero recibir las órdenes en tiempo real en una interfaz para procesar los pedidos.</t>
-  </si>
-  <si>
-    <t>Los cocineros reciben las órdenes en una pantalla dedicada que muestra el tiempo de preparación y el estado de cada pedido.</t>
-  </si>
-  <si>
-    <t>Como cliente, quiero recibir una notificación cuando mi pedido esté listo para entregar.</t>
-  </si>
-  <si>
     <t>Media</t>
   </si>
   <si>
-    <t>Notificación automática (email o SMS) que indica al cliente cuándo su pedido está listo para ser retirado.</t>
-  </si>
-  <si>
     <t>3 puntos</t>
   </si>
   <si>
     <t>Sprint 4</t>
   </si>
   <si>
-    <t>Como administrador, quiero ver informes diarios de ventas y pedidos para analizar el rendimiento del café.</t>
-  </si>
-  <si>
-    <t>Informes descargables con datos filtrados por fecha, productos y categoría. Los informes deben mostrar ventas totales y por cada producto.</t>
-  </si>
-  <si>
-    <t>Como gerente, quiero poder gestionar el acceso de usuarios al sistema (creación, edición y eliminación).</t>
-  </si>
-  <si>
-    <t>El gerente puede crear, editar o eliminar cuentas de usuarios (meseros, cocineros, etc.), asignando permisos específicos a cada rol.</t>
-  </si>
-  <si>
     <t>Sprint 5</t>
   </si>
   <si>
-    <t>Como cliente, quiero que la página web sea accesible y fácil de usar en dispositivos móviles.</t>
-  </si>
-  <si>
-    <t>La página web debe ser completamente responsiva y optimizada para dispositivos móviles (diseño adaptativo).</t>
-  </si>
-  <si>
     <t>Sprint 6</t>
   </si>
   <si>
-    <t>Como administrador, quiero poder gestionar promociones o descuentos que se apliquen automáticamente.</t>
-  </si>
-  <si>
-    <t>El administrador puede crear promociones de descuento que se aplican automáticamente según las reglas configuradas (ej. 10% de descuento en pedidos mayores a $20).</t>
-  </si>
-  <si>
-    <t>Como mesero, quiero poder agregar notas especiales a los pedidos (ej. Sin gluten, sin azúcar).</t>
-  </si>
-  <si>
-    <t>Los meseros pueden agregar notas especiales a los pedidos que son visibles para la cocina (ej. "sin gluten", "sin azúcar").</t>
-  </si>
-  <si>
     <t>Sprint 7</t>
   </si>
   <si>
-    <t>Como cliente y mesero, quiero poder reordenar pedidos previos desde mi historial.</t>
-  </si>
-  <si>
-    <t>Baja</t>
-  </si>
-  <si>
-    <t>El cliente y el mesero puede ver su historial de pedidos y volver a ordenar uno de ellos con un solo clic.</t>
-  </si>
-  <si>
-    <t>Como gerente, quiero poder programar la publicación de productos futuros en el menú.</t>
-  </si>
-  <si>
-    <t>El sistema permite programar la fecha y hora en que nuevos productos del menú se publican automáticamente en la web.</t>
-  </si>
-  <si>
     <t>Sprint 8</t>
   </si>
   <si>
-    <t>HACER sPRINT PLANINGA PARA PODER HACER EL PRODUCT BACKLOG</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
     <t>Objetivo</t>
   </si>
   <si>
-    <t>Pruebas</t>
-  </si>
-  <si>
-    <t>Revisión</t>
-  </si>
-  <si>
-    <t>Crear la interfaz para la creación de pedidos.</t>
-  </si>
-  <si>
-    <t>Revisar la funcionalidad implementada en la reunión de revisión del sprint.</t>
-  </si>
-  <si>
-    <t>Implementar la lógica para asignar pedidos a mesas.</t>
-  </si>
-  <si>
-    <t>Desarrollar el sistema de seguimiento del estado de los pedidos.</t>
-  </si>
-  <si>
-    <t>Implementar la funcionalidad de cancelación.</t>
-  </si>
-  <si>
     <t>Rol</t>
   </si>
   <si>
-    <t>Implementar la funcionalidad de cancelación de pedidos.</t>
-  </si>
-  <si>
     <t>Planning Poker - Alas Coffee</t>
   </si>
   <si>
@@ -454,46 +352,256 @@
     <t>Estimación Ajustada (Planning Poker)</t>
   </si>
   <si>
-    <t>Como cliente, quiero poder registrarme en la página web para hacer pedidos.</t>
-  </si>
-  <si>
-    <t>Como administrador, quiero gestionar el menú (agregar, eliminar, editar productos).</t>
-  </si>
-  <si>
-    <t>Como cliente, quiero ver el menú actualizado para elegir lo que quiero pedir.</t>
-  </si>
-  <si>
-    <t>Como mesero, quiero tomar pedidos desde la tablet y enviarlos al área de cocina.</t>
-  </si>
-  <si>
-    <t>Como cliente, quiero poder pagar mi pedido a través de la página web.</t>
-  </si>
-  <si>
-    <t>Como cocinero, quiero recibir las órdenes en tiempo real en una interfaz.</t>
-  </si>
-  <si>
-    <t>Como cliente, quiero recibir una notificación cuando mi pedido esté listo.</t>
-  </si>
-  <si>
     <t>Como administrador, quiero ver informes diarios de ventas y pedidos.</t>
   </si>
   <si>
-    <t>Como gerente, quiero gestionar el acceso de usuarios al sistema.</t>
-  </si>
-  <si>
-    <t>Como cliente, quiero que la página web sea accesible en dispositivos móviles.</t>
-  </si>
-  <si>
-    <t>Como administrador, quiero gestionar promociones o descuentos automáticos.</t>
-  </si>
-  <si>
-    <t>Como mesero, quiero agregar notas especiales a los pedidos.</t>
-  </si>
-  <si>
-    <t>Como cliente, quiero poder reordenar pedidos previos desde mi historial.</t>
-  </si>
-  <si>
-    <t>Como gerente, quiero programar la publicación de productos futuros en el menú.</t>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>4 puntos</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>2.2 Como mesero, quiero asignar pedidos a las mesas correctas para llevar un control preciso.</t>
+  </si>
+  <si>
+    <t>6 puntos</t>
+  </si>
+  <si>
+    <t>7 puntos</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>5.3</t>
+  </si>
+  <si>
+    <t>5.4</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>5.6</t>
+  </si>
+  <si>
+    <t>5.7</t>
+  </si>
+  <si>
+    <t>5.8</t>
+  </si>
+  <si>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>6.2</t>
+  </si>
+  <si>
+    <t>6.3</t>
+  </si>
+  <si>
+    <t>6.4</t>
+  </si>
+  <si>
+    <t>Como mesero, quiero crear un pedido y asignarlo a una mesa específica.</t>
+  </si>
+  <si>
+    <t>Como mesero, quiero modificar un pedido existente para añadir o eliminar elementos.</t>
+  </si>
+  <si>
+    <t>Como mesero, quiero ver el estado de cada pedido (pendiente, en preparación, listo).</t>
+  </si>
+  <si>
+    <t>Como mesero, quiero cancelar un pedido en cualquier momento.</t>
+  </si>
+  <si>
+    <t>Como mesero, quiero recibir notificaciones cuando el pedido esté listo para recoger.</t>
+  </si>
+  <si>
+    <t>1Como mesero, quiero agregar notas especiales a los pedidos (ej. Sin gluten, sin azúcar).</t>
+  </si>
+  <si>
+    <t>Como mesero, quiero reordenar pedidos previos desde el historial.</t>
+  </si>
+  <si>
+    <t>Como gerente, quiero ver en tiempo real qué mesas están ocupadas o libres.</t>
+  </si>
+  <si>
+    <t>Como personal de cocina, quiero recibir notificaciones automáticas de pedidos listos.</t>
+  </si>
+  <si>
+    <t>Como mesero, quiero tener una interfaz intuitiva para toma de pedidos.</t>
+  </si>
+  <si>
+    <t>Como personal de cocina, quiero enviar actualizaciones de pedidos.</t>
+  </si>
+  <si>
+    <t>Como mesero, quiero visualizar el tiempo de preparación.</t>
+  </si>
+  <si>
+    <t>Como administrador, quiero almacenar y gestionar datos de pedidos.</t>
+  </si>
+  <si>
+    <t>Como administrador, quiero actualizar información de usuarios.</t>
+  </si>
+  <si>
+    <t>Como administrador, quiero realizar copias de seguridad automáticas.</t>
+  </si>
+  <si>
+    <t>Como administrador, quiero ver el estado del pedido y saber el tiempo estimado.</t>
+  </si>
+  <si>
+    <t>Como administrador, quiero gestionar promociones o descuentos que se apliquen automáticamente.</t>
+  </si>
+  <si>
+    <t>Como cajero, quiero registrarme en la página web para hacer pedidos y gestionar mis datos.</t>
+  </si>
+  <si>
+    <t>Como administrador, quiero gestionar el acceso de usuarios al sistema (creación, edición y eliminación).</t>
+  </si>
+  <si>
+    <t>Como cajero, quiero ver el menú actualizado.</t>
+  </si>
+  <si>
+    <t>Como cajero, quiero recibir una notificación cuando el pedido esté listo para entregar.</t>
+  </si>
+  <si>
+    <t>Como cajero, quiero que la página web sea accesible y fácil de usar en dispositivos móviles.</t>
+  </si>
+  <si>
+    <t>Sprint Planing - Alas Coffee</t>
+  </si>
+  <si>
+    <t>ID Historia</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Estimación (en horas)</t>
+  </si>
+  <si>
+    <t>Responsable</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Dependencias</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>Equipo Backend</t>
+  </si>
+  <si>
+    <t>Por comenzar</t>
+  </si>
+  <si>
+    <t>El pedido debe asignarse correctamente a la mesa indicada.</t>
+  </si>
+  <si>
+    <t>Base de datos funcional</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>Ver el estado de cada pedido (pendiente, listo).</t>
+  </si>
+  <si>
+    <t>El sistema debe mostrar el estado actualizado del pedido.</t>
+  </si>
+  <si>
+    <t>Integración con cocina</t>
+  </si>
+  <si>
+    <t>Ver qué mesas están ocupadas o libres en tiempo real.</t>
+  </si>
+  <si>
+    <t>Equipo Frontend</t>
+  </si>
+  <si>
+    <t>Vista clara y precisa del estado de todas las mesas.</t>
+  </si>
+  <si>
+    <t>Backend operativo</t>
+  </si>
+  <si>
+    <t>Notificaciones automáticas de pedidos listos.</t>
+  </si>
+  <si>
+    <t>Notificaciones enviadas inmediatamente al cambio de estado.</t>
+  </si>
+  <si>
+    <t>Actualización del estado de pedidos</t>
+  </si>
+  <si>
+    <t>Tener una interfaz intuitiva para la toma de pedidos.</t>
+  </si>
+  <si>
+    <t>Diseñador UI/UX</t>
+  </si>
+  <si>
+    <t>Interfaz aprobada por pruebas de usuario.</t>
+  </si>
+  <si>
+    <t>Investigación UI/UX</t>
+  </si>
+  <si>
+    <t>Los datos deben almacenarse y consultarse sin errores.</t>
+  </si>
+  <si>
+    <t>Configuración del servidor</t>
+  </si>
+  <si>
+    <t>Equipo DevOps</t>
+  </si>
+  <si>
+    <t>Copias de seguridad funcionales y programadas.</t>
+  </si>
+  <si>
+    <t>Configuración del sistema</t>
+  </si>
+  <si>
+    <t>Asegurar que la página web sea fácil de usar en dispositivos móviles.</t>
+  </si>
+  <si>
+    <t>Página probada en diferentes dispositivos y navegadores.</t>
+  </si>
+  <si>
+    <t>Implementación del diseño</t>
+  </si>
+  <si>
+    <t>Tarea</t>
+  </si>
+  <si>
+    <t>Pendiente</t>
   </si>
 </sst>
 </file>
@@ -503,7 +611,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\.m"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -572,11 +680,6 @@
       <name val="&quot;Century Gothic&quot;"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Century Gothic"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="1"/>
@@ -595,19 +698,62 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="20"/>
+      <sz val="10"/>
       <color theme="1"/>
+      <name val="&quot;Century Gothic&quot;"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="&quot;Century Gothic&quot;"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8.75"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8.75"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -704,8 +850,26 @@
         <bgColor rgb="FF76A5AF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -877,30 +1041,6 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <right/>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -911,25 +1051,88 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -938,8 +1141,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="78">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -949,7 +1152,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -989,7 +1192,7 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1033,75 +1236,115 @@
     <xf numFmtId="164" fontId="3" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1165,16 +1408,16 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1452,7 +1695,9 @@
   </sheetPr>
   <dimension ref="B3:G20"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B3" activeCellId="1" sqref="B10:D10 B3:E9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -1676,8 +1921,8 @@
   </sheetPr>
   <dimension ref="A1:AA29"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E27" sqref="B10:E27"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1742,7 +1987,7 @@
       <c r="D3" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="47" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1757,7 +2002,7 @@
       <c r="D4" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="47" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1772,11 +2017,11 @@
       <c r="D5" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="47" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="13.2">
+    <row r="6" spans="1:27" ht="24" customHeight="1">
       <c r="A6" s="26"/>
       <c r="B6" s="27">
         <v>45383</v>
@@ -1787,7 +2032,7 @@
       <c r="D6" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="47" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1802,7 +2047,7 @@
       <c r="D7" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="47" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1817,7 +2062,7 @@
       <c r="D8" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="47" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1832,7 +2077,7 @@
       <c r="D9" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="47" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1844,10 +2089,10 @@
       <c r="C10" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="67" t="s">
+      <c r="D10" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="47" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1859,10 +2104,10 @@
       <c r="C11" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="67" t="s">
+      <c r="D11" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="47" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1877,7 +2122,7 @@
       <c r="D12" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="47" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1892,7 +2137,7 @@
       <c r="D13" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="47" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1907,7 +2152,7 @@
       <c r="D14" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="29" t="s">
+      <c r="E14" s="47" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1922,7 +2167,7 @@
       <c r="D15" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="29" t="s">
+      <c r="E15" s="47" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1937,7 +2182,7 @@
       <c r="D16" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="34" t="s">
+      <c r="E16" s="48" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1952,7 +2197,7 @@
       <c r="D17" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="34" t="s">
+      <c r="E17" s="48" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1966,7 +2211,7 @@
       <c r="D18" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="34" t="s">
+      <c r="E18" s="48" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1980,7 +2225,7 @@
       <c r="D19" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="E19" s="34" t="s">
+      <c r="E19" s="48" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1994,7 +2239,7 @@
       <c r="D20" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="34" t="s">
+      <c r="E20" s="48" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2008,7 +2253,7 @@
       <c r="D21" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="34" t="s">
+      <c r="E21" s="48" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2022,7 +2267,7 @@
       <c r="D22" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="34" t="s">
+      <c r="E22" s="48" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2036,12 +2281,12 @@
       <c r="D23" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="E23" s="34" t="s">
+      <c r="E23" s="48" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="26.4">
-      <c r="B24" s="35">
+      <c r="B24" s="34">
         <v>45297</v>
       </c>
       <c r="C24" s="28" t="s">
@@ -2050,12 +2295,12 @@
       <c r="D24" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="E24" s="34" t="s">
+      <c r="E24" s="48" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="13.2">
-      <c r="B25" s="35">
+      <c r="B25" s="34">
         <v>45328</v>
       </c>
       <c r="C25" s="28" t="s">
@@ -2064,12 +2309,12 @@
       <c r="D25" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="E25" s="34" t="s">
+      <c r="E25" s="48" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="26.4">
-      <c r="B26" s="35">
+      <c r="B26" s="34">
         <v>45357</v>
       </c>
       <c r="C26" s="28" t="s">
@@ -2078,12 +2323,12 @@
       <c r="D26" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="E26" s="34" t="s">
+      <c r="E26" s="48" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="26.4">
-      <c r="B27" s="35">
+      <c r="B27" s="34">
         <v>45388</v>
       </c>
       <c r="C27" s="28" t="s">
@@ -2092,15 +2337,15 @@
       <c r="D27" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="E27" s="34" t="s">
+      <c r="E27" s="48" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1">
-      <c r="D28" s="66"/>
+      <c r="D28" s="36"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1">
-      <c r="D29" s="66"/>
+      <c r="D29" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2113,10 +2358,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B3:G20"/>
+  <dimension ref="B3:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView zoomScale="75" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2125,364 +2370,565 @@
     <col min="3" max="3" width="52.33203125" customWidth="1"/>
     <col min="4" max="4" width="8.33203125" customWidth="1"/>
     <col min="5" max="5" width="128.109375" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" customWidth="1"/>
+    <col min="7" max="7" width="17.77734375" customWidth="1"/>
     <col min="9" max="9" width="22.88671875" customWidth="1"/>
     <col min="10" max="10" width="22.44140625" customWidth="1"/>
     <col min="11" max="11" width="37.44140625" customWidth="1"/>
     <col min="12" max="12" width="147.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7">
-      <c r="B3" s="47" t="s">
+    <row r="3" spans="2:7" ht="13.2">
+      <c r="B3" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="49"/>
-    </row>
-    <row r="4" spans="2:7">
-      <c r="B4" s="50"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="52"/>
-    </row>
-    <row r="5" spans="2:7">
-      <c r="B5" s="53"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="55"/>
-    </row>
-    <row r="6" spans="2:7">
-      <c r="B6" s="36" t="s">
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="40"/>
+    </row>
+    <row r="4" spans="2:7" ht="13.2">
+      <c r="B4" s="41"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="43"/>
+    </row>
+    <row r="5" spans="2:7" ht="13.2">
+      <c r="B5" s="44"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="46"/>
+    </row>
+    <row r="6" spans="2:7" ht="13.2">
+      <c r="B6" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="F6" s="36" t="s">
+      <c r="F6" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="G6" s="36" t="s">
+      <c r="G6" s="51" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="40.200000000000003" customHeight="1">
-      <c r="B7" s="37">
+      <c r="B7" s="50">
         <v>45292</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="E7" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="G7" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="F7" s="40" t="s">
+    </row>
+    <row r="8" spans="2:7" ht="40.200000000000003" customHeight="1">
+      <c r="B8" s="50">
+        <v>45323</v>
+      </c>
+      <c r="C8" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" s="52" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="34.799999999999997" customHeight="1">
+      <c r="B9" s="50">
+        <v>45352</v>
+      </c>
+      <c r="C9" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" s="52" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="24" customHeight="1">
+      <c r="B10" s="50">
+        <v>45383</v>
+      </c>
+      <c r="C10" s="52" t="s">
+        <v>132</v>
+      </c>
+      <c r="D10" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10" s="52" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="30" customHeight="1">
+      <c r="B11" s="50">
+        <v>45413</v>
+      </c>
+      <c r="C11" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" s="52" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="28.8" customHeight="1">
+      <c r="B12" s="50">
+        <v>45444</v>
+      </c>
+      <c r="C12" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="G12" s="52" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="33" customHeight="1">
+      <c r="B13" s="50">
+        <v>45474</v>
+      </c>
+      <c r="C13" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="G13" s="52" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="26.4">
+      <c r="B14" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="52" t="s">
+        <v>136</v>
+      </c>
+      <c r="D14" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="52" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="26.4">
+      <c r="B15" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="G15" s="52" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="26.4">
+      <c r="B16" s="53" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="52" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="52" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="13.2">
+      <c r="B17" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="D17" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" s="52" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="26.4">
+      <c r="B18" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="52" t="s">
+        <v>138</v>
+      </c>
+      <c r="D18" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="G18" s="52" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="13.2">
+      <c r="B19" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" s="52" t="s">
+        <v>140</v>
+      </c>
+      <c r="D19" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="G19" s="52" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="26.4">
+      <c r="B20" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="D20" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="G20" s="52" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="26.4">
+      <c r="B21" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="D21" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="G21" s="52" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="13.2">
+      <c r="B22" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="52" t="s">
+        <v>142</v>
+      </c>
+      <c r="D22" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="G22" s="52" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="26.4">
+      <c r="B23" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="G7" s="40" t="s">
+      <c r="D23" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" s="52" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" ht="40.200000000000003" customHeight="1">
-      <c r="B8" s="37">
-        <v>45323</v>
-      </c>
-      <c r="C8" s="38" t="s">
+      <c r="G23" s="52" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="26.4">
+      <c r="B24" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="D24" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="G24" s="52" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="26.4">
+      <c r="B25" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="E25" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="G25" s="52" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="26.4">
+      <c r="B26" s="54" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="D26" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="G26" s="52" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="26.4">
+      <c r="B27" s="55" t="s">
+        <v>124</v>
+      </c>
+      <c r="C27" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="D27" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="F27" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="G27" s="52" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="26.4">
+      <c r="B28" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="C28" s="52" t="s">
+        <v>146</v>
+      </c>
+      <c r="D28" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="F28" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="G28" s="52" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="13.2">
+      <c r="B29" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29" s="52" t="s">
+        <v>148</v>
+      </c>
+      <c r="D29" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="E29" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="F29" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="G29" s="52" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="26.4">
+      <c r="B30" s="56" t="s">
+        <v>127</v>
+      </c>
+      <c r="C30" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="D30" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="F30" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="G30" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="G8" s="40" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="34.799999999999997" customHeight="1">
-      <c r="B9" s="37">
-        <v>45352</v>
-      </c>
-      <c r="C9" s="38" t="s">
+    </row>
+    <row r="31" spans="2:7" ht="26.4">
+      <c r="B31" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="C31" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="D31" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="F31" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="G31" s="52" t="s">
         <v>95</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="E9" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="F9" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="G9" s="40" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="24" customHeight="1">
-      <c r="B10" s="37">
-        <v>45383</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="D10" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="E10" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="F10" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="G10" s="40" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="30" customHeight="1">
-      <c r="B11" s="37">
-        <v>45413</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="E11" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="F11" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="G11" s="40" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="28.8" customHeight="1">
-      <c r="B12" s="37">
-        <v>45444</v>
-      </c>
-      <c r="C12" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="D12" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="F12" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="G12" s="40" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="33" customHeight="1">
-      <c r="B13" s="37">
-        <v>45474</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="D13" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="E13" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="F13" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="G13" s="40" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7">
-      <c r="B14" s="37">
-        <v>45299</v>
-      </c>
-      <c r="C14" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="D14" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="E14" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="F14" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="G14" s="40" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" ht="26.4">
-      <c r="B15" s="37">
-        <v>45300</v>
-      </c>
-      <c r="C15" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="D15" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="E15" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="F15" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="G15" s="40" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" ht="26.4">
-      <c r="B16" s="37">
-        <v>45301</v>
-      </c>
-      <c r="C16" s="38" t="s">
-        <v>113</v>
-      </c>
-      <c r="D16" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="E16" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="F16" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="G16" s="40" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="26.4">
-      <c r="B17" s="37">
-        <v>45302</v>
-      </c>
-      <c r="C17" s="38" t="s">
-        <v>116</v>
-      </c>
-      <c r="D17" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="E17" s="40" t="s">
-        <v>117</v>
-      </c>
-      <c r="F17" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="G17" s="40" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="26.4">
-      <c r="B18" s="37">
-        <v>45303</v>
-      </c>
-      <c r="C18" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="D18" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="E18" s="40" t="s">
-        <v>119</v>
-      </c>
-      <c r="F18" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="G18" s="40" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="26.4">
-      <c r="B19" s="37">
-        <v>45304</v>
-      </c>
-      <c r="C19" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="D19" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="E19" s="40" t="s">
-        <v>123</v>
-      </c>
-      <c r="F19" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="G19" s="40" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="26.4">
-      <c r="B20" s="37">
-        <v>45305</v>
-      </c>
-      <c r="C20" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="D20" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="E20" s="40" t="s">
-        <v>125</v>
-      </c>
-      <c r="F20" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="G20" s="40" t="s">
-        <v>126</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B3:G5"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D20">
-    <cfRule type="beginsWith" dxfId="9" priority="1" operator="beginsWith" text="A">
-      <formula>LEFT((D7),LEN("A"))=("A")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7:D20">
-    <cfRule type="beginsWith" dxfId="8" priority="2" operator="beginsWith" text="M">
-      <formula>LEFT((D7),LEN("M"))=("M")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
-    <cfRule type="notContainsBlanks" dxfId="7" priority="3">
-      <formula>LEN(TRIM(E31))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7:D20">
-    <cfRule type="beginsWith" dxfId="6" priority="4" operator="beginsWith" text="B">
-      <formula>LEFT((D7),LEN("B"))=("B")</formula>
-    </cfRule>
-  </conditionalFormatting>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2493,265 +2939,294 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:H23"/>
+  <dimension ref="A2:H14"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="37.44140625" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" customWidth="1"/>
-    <col min="4" max="4" width="31" customWidth="1"/>
-    <col min="5" max="5" width="26.44140625" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" style="62" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" style="62" customWidth="1"/>
+    <col min="5" max="5" width="26.44140625" style="62" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
-      <c r="A2" s="56" t="s">
-        <v>127</v>
-      </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A5" s="51"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A6" s="51"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A7" s="51"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A8" s="51"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A9" s="51"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A10" s="51"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="51"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A12" s="51"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A13" s="51"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A14" s="51"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="C15" s="18" t="s">
+    <row r="2" spans="1:8" ht="13.2">
+      <c r="C2" s="64"/>
+    </row>
+    <row r="3" spans="1:8" ht="13.2" customHeight="1">
+      <c r="A3" s="58" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+    </row>
+    <row r="4" spans="1:8" ht="13.2">
+      <c r="A4" s="58"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+    </row>
+    <row r="5" spans="1:8" ht="13.2">
+      <c r="A5" s="58"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+    </row>
+    <row r="6" spans="1:8" ht="26.4">
+      <c r="A6" s="59" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" s="59" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="61" t="s">
+        <v>154</v>
+      </c>
+      <c r="E6" s="61" t="s">
+        <v>155</v>
+      </c>
+      <c r="F6" s="59" t="s">
+        <v>156</v>
+      </c>
+      <c r="G6" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="H6" s="59" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="26.4" customHeight="1">
+      <c r="A7" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="B7" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="63">
+        <v>8</v>
+      </c>
+      <c r="E7" s="63" t="s">
+        <v>159</v>
+      </c>
+      <c r="F7" s="60" t="s">
+        <v>160</v>
+      </c>
+      <c r="G7" s="60" t="s">
+        <v>161</v>
+      </c>
+      <c r="H7" s="60" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="52.8">
+      <c r="A8" s="60" t="s">
+        <v>163</v>
+      </c>
+      <c r="B8" s="60" t="s">
+        <v>164</v>
+      </c>
+      <c r="C8" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="63">
+        <v>6</v>
+      </c>
+      <c r="E8" s="63" t="s">
+        <v>159</v>
+      </c>
+      <c r="F8" s="60" t="s">
+        <v>160</v>
+      </c>
+      <c r="G8" s="60" t="s">
+        <v>165</v>
+      </c>
+      <c r="H8" s="60" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="39.6">
+      <c r="A9" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" s="60" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9" s="63" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="63">
+        <v>10</v>
+      </c>
+      <c r="E9" s="63" t="s">
+        <v>168</v>
+      </c>
+      <c r="F9" s="60" t="s">
+        <v>160</v>
+      </c>
+      <c r="G9" s="60" t="s">
+        <v>169</v>
+      </c>
+      <c r="H9" s="60" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="52.8">
+      <c r="A10" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="60" t="s">
+        <v>171</v>
+      </c>
+      <c r="C10" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="63">
+        <v>12</v>
+      </c>
+      <c r="E10" s="63" t="s">
+        <v>159</v>
+      </c>
+      <c r="F10" s="60" t="s">
+        <v>160</v>
+      </c>
+      <c r="G10" s="60" t="s">
+        <v>172</v>
+      </c>
+      <c r="H10" s="60" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="26.4">
+      <c r="A11" s="60" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11" s="60" t="s">
+        <v>174</v>
+      </c>
+      <c r="C11" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="63">
+        <v>15</v>
+      </c>
+      <c r="E11" s="63" t="s">
+        <v>175</v>
+      </c>
+      <c r="F11" s="60" t="s">
+        <v>160</v>
+      </c>
+      <c r="G11" s="60" t="s">
+        <v>176</v>
+      </c>
+      <c r="H11" s="60" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="39.6">
+      <c r="A12" s="60" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="63">
+        <v>12</v>
+      </c>
+      <c r="E12" s="63" t="s">
+        <v>159</v>
+      </c>
+      <c r="F12" s="60" t="s">
+        <v>160</v>
+      </c>
+      <c r="G12" s="60" t="s">
+        <v>178</v>
+      </c>
+      <c r="H12" s="60" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="39.6">
+      <c r="A13" s="60" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="63" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="63">
+        <v>8</v>
+      </c>
+      <c r="E13" s="63" t="s">
+        <v>180</v>
+      </c>
+      <c r="F13" s="60" t="s">
+        <v>160</v>
+      </c>
+      <c r="G13" s="60" t="s">
+        <v>181</v>
+      </c>
+      <c r="H13" s="60" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="39.6">
+      <c r="A14" s="60" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="47" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="49"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="50"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="52"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="53"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="55"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="B19" s="36" t="s">
-        <v>129</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>130</v>
-      </c>
-      <c r="D19" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="E19" s="36" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="26.4">
-      <c r="A20" s="57">
-        <v>1</v>
-      </c>
-      <c r="B20" s="38" t="s">
-        <v>132</v>
-      </c>
-      <c r="C20" s="57" t="s">
-        <v>104</v>
-      </c>
-      <c r="D20" s="60" t="s">
-        <v>133</v>
-      </c>
-      <c r="E20" s="61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="26.4">
-      <c r="A21" s="58"/>
-      <c r="B21" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-    </row>
-    <row r="22" spans="1:5" ht="26.4">
-      <c r="A22" s="58"/>
-      <c r="B22" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-    </row>
-    <row r="23" spans="1:5" ht="26.4">
-      <c r="A23" s="59"/>
-      <c r="B23" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
+      <c r="B14" s="60" t="s">
+        <v>183</v>
+      </c>
+      <c r="C14" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="63">
+        <v>10</v>
+      </c>
+      <c r="E14" s="63" t="s">
+        <v>168</v>
+      </c>
+      <c r="F14" s="60" t="s">
+        <v>160</v>
+      </c>
+      <c r="G14" s="60" t="s">
+        <v>184</v>
+      </c>
+      <c r="H14" s="60" t="s">
+        <v>185</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A2:H14"/>
-    <mergeCell ref="A16:E18"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E20:E23"/>
+  <mergeCells count="1">
+    <mergeCell ref="A3:H5"/>
   </mergeCells>
-  <conditionalFormatting sqref="C20:C23">
-    <cfRule type="beginsWith" dxfId="5" priority="1" operator="beginsWith" text="A">
-      <formula>LEFT((C20),LEN("A"))=("A")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20:C23">
-    <cfRule type="beginsWith" dxfId="4" priority="2" operator="beginsWith" text="M">
-      <formula>LEFT((C20),LEN("M"))=("M")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20:C23">
-    <cfRule type="beginsWith" dxfId="3" priority="3" operator="beginsWith" text="B">
-      <formula>LEFT((C20),LEN("B"))=("B")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2761,352 +3236,886 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" style="62" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.44140625" customWidth="1"/>
-    <col min="3" max="3" width="41.88671875" customWidth="1"/>
-    <col min="4" max="5" width="23.77734375" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" style="62" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.77734375" style="62" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="62" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="62" t="s">
+    <row r="1" spans="1:6" ht="13.2" customHeight="1">
+      <c r="A1" s="65" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="49"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="50"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="52"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="53"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="55"/>
-    </row>
-    <row r="4" spans="1:5" ht="13.2">
-      <c r="A4" s="41" t="s">
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+    </row>
+    <row r="2" spans="1:6" ht="13.2">
+      <c r="A2" s="65"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+    </row>
+    <row r="3" spans="1:6" ht="13.8" thickBot="1">
+      <c r="A3" s="67"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+    </row>
+    <row r="4" spans="1:6" ht="14.4" thickBot="1">
+      <c r="A4" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="41" t="s">
-        <v>137</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="D4" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" s="41" t="s">
+      <c r="B4" s="57" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4" s="69" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="69" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="69" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="23.4" customHeight="1">
-      <c r="A5" s="42">
+      <c r="F4" s="70" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="27" thickBot="1">
+      <c r="A5" s="71">
         <v>1</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="38" t="s">
-        <v>132</v>
-      </c>
-      <c r="D5" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="E5" s="38">
+      <c r="D5" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="71">
+        <v>5</v>
+      </c>
+      <c r="F5" s="72" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="34.799999999999997" customHeight="1" thickBot="1">
+      <c r="A6" s="71">
+        <v>2</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="71">
+        <v>3</v>
+      </c>
+      <c r="F6" s="72" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="31.2" customHeight="1" thickBot="1">
+      <c r="A7" s="71">
+        <v>3</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="71" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="71">
+        <v>4</v>
+      </c>
+      <c r="F7" s="72" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="27" thickBot="1">
+      <c r="A8" s="71">
+        <v>4</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="71">
+        <v>3</v>
+      </c>
+      <c r="F8" s="72" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="27" thickBot="1">
+      <c r="A9" s="71">
+        <v>5</v>
+      </c>
+      <c r="B9" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="71" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="71">
+        <v>2</v>
+      </c>
+      <c r="F9" s="72" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="27" thickBot="1">
+      <c r="A10" s="71">
+        <v>6</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="71" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="71">
+        <v>3</v>
+      </c>
+      <c r="F10" s="72" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="27" thickBot="1">
+      <c r="A11" s="71">
+        <v>7</v>
+      </c>
+      <c r="B11" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="71" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="71">
+        <v>4</v>
+      </c>
+      <c r="F11" s="72" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="27" thickBot="1">
+      <c r="A12" s="71">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="34.799999999999997" customHeight="1">
-      <c r="A6" s="42">
-        <v>1</v>
-      </c>
-      <c r="B6" s="38" t="s">
+      <c r="B12" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="71">
+        <v>5</v>
+      </c>
+      <c r="F12" s="72" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="27" thickBot="1">
+      <c r="A13" s="71">
+        <v>9</v>
+      </c>
+      <c r="B13" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="D6" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="E6" s="38">
+      <c r="D13" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="71">
+        <v>4</v>
+      </c>
+      <c r="F13" s="72" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="27" thickBot="1">
+      <c r="A14" s="71">
+        <v>10</v>
+      </c>
+      <c r="B14" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="71">
+        <v>4</v>
+      </c>
+      <c r="F14" s="72" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="40.200000000000003" thickBot="1">
+      <c r="A15" s="71">
+        <v>11</v>
+      </c>
+      <c r="B15" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="71">
+        <v>3</v>
+      </c>
+      <c r="F15" s="72" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="27" thickBot="1">
+      <c r="A16" s="71">
+        <v>12</v>
+      </c>
+      <c r="B16" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="71">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="31.2" customHeight="1">
-      <c r="A7" s="42">
-        <v>1</v>
-      </c>
-      <c r="B7" s="38" t="s">
+      <c r="F16" s="72" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="27" thickBot="1">
+      <c r="A17" s="71">
+        <v>13</v>
+      </c>
+      <c r="B17" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="D7" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="E7" s="38">
+      <c r="D17" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="71">
+        <v>3</v>
+      </c>
+      <c r="F17" s="72" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="27" thickBot="1">
+      <c r="A18" s="71">
+        <v>14</v>
+      </c>
+      <c r="B18" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="71">
+        <v>6</v>
+      </c>
+      <c r="F18" s="72" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="27" thickBot="1">
+      <c r="A19" s="71">
+        <v>15</v>
+      </c>
+      <c r="B19" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="71">
+        <v>4</v>
+      </c>
+      <c r="F19" s="72" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="40.200000000000003" thickBot="1">
+      <c r="A20" s="71">
+        <v>16</v>
+      </c>
+      <c r="B20" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="71" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="71">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="49.2" customHeight="1">
-      <c r="A8" s="42">
-        <v>1</v>
-      </c>
-      <c r="B8" s="38" t="s">
+      <c r="F20" s="72" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="27" thickBot="1">
+      <c r="A21" s="71">
+        <v>17</v>
+      </c>
+      <c r="B21" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="71" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="71">
+        <v>7</v>
+      </c>
+      <c r="F21" s="72" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="27" thickBot="1">
+      <c r="A22" s="71">
+        <v>18</v>
+      </c>
+      <c r="B22" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="71" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="71">
+        <v>5</v>
+      </c>
+      <c r="F22" s="72" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="27" thickBot="1">
+      <c r="A23" s="71">
+        <v>19</v>
+      </c>
+      <c r="B23" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="71">
+        <v>4</v>
+      </c>
+      <c r="F23" s="72" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="27" thickBot="1">
+      <c r="A24" s="71">
+        <v>20</v>
+      </c>
+      <c r="B24" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="71">
+        <v>5</v>
+      </c>
+      <c r="F24" s="72" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="27" thickBot="1">
+      <c r="A25" s="71">
+        <v>21</v>
+      </c>
+      <c r="B25" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="71" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="71">
+        <v>6</v>
+      </c>
+      <c r="F25" s="72" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="27" thickBot="1">
+      <c r="A26" s="71">
+        <v>22</v>
+      </c>
+      <c r="B26" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="71" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" s="71">
+        <v>4</v>
+      </c>
+      <c r="F26" s="72" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="27" thickBot="1">
+      <c r="A27" s="71">
+        <v>23</v>
+      </c>
+      <c r="B27" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="71" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" s="71">
+        <v>3</v>
+      </c>
+      <c r="F27" s="72" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="27" thickBot="1">
+      <c r="A28" s="71">
+        <v>24</v>
+      </c>
+      <c r="B28" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="71" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" s="71">
+        <v>2</v>
+      </c>
+      <c r="F28" s="72" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="27" thickBot="1">
+      <c r="A29" s="71">
         <v>25</v>
       </c>
-      <c r="C8" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="E8" s="38">
-        <v>3</v>
+      <c r="B29" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="71" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29" s="71">
+        <v>5</v>
+      </c>
+      <c r="F29" s="72" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E3"/>
+    <mergeCell ref="A1:F3"/>
   </mergeCells>
-  <conditionalFormatting sqref="D5:D8">
-    <cfRule type="beginsWith" dxfId="2" priority="1" operator="beginsWith" text="A">
-      <formula>LEFT((D5),LEN("A"))=("A")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D8">
-    <cfRule type="beginsWith" dxfId="1" priority="2" operator="beginsWith" text="M">
-      <formula>LEFT((D5),LEN("M"))=("M")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D8">
-    <cfRule type="beginsWith" dxfId="0" priority="3" operator="beginsWith" text="B">
-      <formula>LEFT((D5),LEN("B"))=("B")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B3:D18"/>
+  <dimension ref="B2:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="62.33203125" customWidth="1"/>
-    <col min="3" max="3" width="22.109375" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="2" max="2" width="57.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" style="62" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32" style="62" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B3" s="63" t="s">
-        <v>139</v>
-      </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="65"/>
-    </row>
-    <row r="4" spans="2:4">
-      <c r="B4" s="44" t="s">
+    <row r="2" spans="2:4" ht="34.799999999999997" customHeight="1"/>
+    <row r="3" spans="2:4" ht="37.799999999999997" customHeight="1">
+      <c r="B3" s="73" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+    </row>
+    <row r="4" spans="2:4" ht="13.2">
+      <c r="B4" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="44" t="s">
-        <v>140</v>
-      </c>
-      <c r="D4" s="44" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="C5" s="46">
+      <c r="C4" s="76" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="76" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="13.2">
+      <c r="B5" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="77">
         <v>5</v>
       </c>
-      <c r="D5" s="46">
+      <c r="D5" s="77">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
-      <c r="B6" s="45" t="s">
-        <v>143</v>
-      </c>
-      <c r="C6" s="46">
+    <row r="6" spans="2:4" ht="13.2">
+      <c r="B6" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="77">
         <v>8</v>
       </c>
-      <c r="D6" s="46">
+      <c r="D6" s="77">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
-      <c r="B7" s="45" t="s">
-        <v>144</v>
-      </c>
-      <c r="C7" s="46">
+    <row r="7" spans="2:4" ht="13.2">
+      <c r="B7" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="77">
         <v>5</v>
       </c>
-      <c r="D7" s="46">
+      <c r="D7" s="77">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
-      <c r="B8" s="45" t="s">
-        <v>145</v>
-      </c>
-      <c r="C8" s="46">
+    <row r="8" spans="2:4" ht="13.2">
+      <c r="B8" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="77">
         <v>8</v>
       </c>
-      <c r="D8" s="46">
+      <c r="D8" s="77">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:4">
-      <c r="B9" s="45" t="s">
-        <v>146</v>
-      </c>
-      <c r="C9" s="46">
+    <row r="9" spans="2:4" ht="13.2">
+      <c r="B9" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="77">
         <v>8</v>
       </c>
-      <c r="D9" s="46">
+      <c r="D9" s="77">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="2:4">
-      <c r="B10" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="C10" s="46">
+    <row r="10" spans="2:4" ht="13.2">
+      <c r="B10" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="77">
         <v>8</v>
       </c>
-      <c r="D10" s="46">
+      <c r="D10" s="77">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
-      <c r="B11" s="45" t="s">
-        <v>148</v>
-      </c>
-      <c r="C11" s="46">
+    <row r="11" spans="2:4" ht="13.2">
+      <c r="B11" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="77">
         <v>3</v>
       </c>
-      <c r="D11" s="46">
+      <c r="D11" s="77">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
-      <c r="B12" s="45" t="s">
-        <v>149</v>
-      </c>
-      <c r="C12" s="46">
+    <row r="12" spans="2:4" ht="13.2">
+      <c r="B12" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="77">
         <v>8</v>
       </c>
-      <c r="D12" s="46">
+      <c r="D12" s="77">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="2:4">
-      <c r="B13" s="45" t="s">
-        <v>150</v>
-      </c>
-      <c r="C13" s="46">
+    <row r="13" spans="2:4" ht="13.2">
+      <c r="B13" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="77">
         <v>8</v>
       </c>
-      <c r="D13" s="46">
+      <c r="D13" s="77">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="2:4">
-      <c r="B14" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="C14" s="46">
+    <row r="14" spans="2:4" ht="13.2">
+      <c r="B14" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="77">
         <v>8</v>
       </c>
-      <c r="D14" s="46">
+      <c r="D14" s="77">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="2:4">
-      <c r="B15" s="45" t="s">
-        <v>152</v>
-      </c>
-      <c r="C15" s="46">
+    <row r="15" spans="2:4" ht="13.2">
+      <c r="B15" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="77">
         <v>5</v>
       </c>
-      <c r="D15" s="46">
+      <c r="D15" s="77">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:4">
-      <c r="B16" s="45" t="s">
-        <v>153</v>
-      </c>
-      <c r="C16" s="46">
+    <row r="16" spans="2:4" ht="13.2">
+      <c r="B16" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="77">
         <v>3</v>
       </c>
-      <c r="D16" s="46">
+      <c r="D16" s="77">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="45" t="s">
-        <v>154</v>
-      </c>
-      <c r="C17" s="46">
+    <row r="17" spans="2:4" ht="13.2">
+      <c r="B17" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="77">
         <v>5</v>
       </c>
-      <c r="D17" s="46">
+      <c r="D17" s="77">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="45" t="s">
-        <v>155</v>
-      </c>
-      <c r="C18" s="46">
+    <row r="18" spans="2:4" ht="13.2">
+      <c r="B18" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="77">
         <v>3</v>
       </c>
-      <c r="D18" s="46">
+      <c r="D18" s="77">
         <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B19" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="77">
+        <v>5</v>
+      </c>
+      <c r="D19" s="77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B20" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="77">
+        <v>5</v>
+      </c>
+      <c r="D20" s="77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B21" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="77">
+        <v>5</v>
+      </c>
+      <c r="D21" s="77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B22" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="77">
+        <v>5</v>
+      </c>
+      <c r="D22" s="77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B23" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="77">
+        <v>5</v>
+      </c>
+      <c r="D23" s="77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B24" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="77">
+        <v>5</v>
+      </c>
+      <c r="D24" s="77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B25" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="77">
+        <v>5</v>
+      </c>
+      <c r="D25" s="77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B26" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="77">
+        <v>5</v>
+      </c>
+      <c r="D26" s="77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B27" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="77">
+        <v>5</v>
+      </c>
+      <c r="D27" s="77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B28" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="77">
+        <v>5</v>
+      </c>
+      <c r="D28" s="77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B29" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="77">
+        <v>5</v>
+      </c>
+      <c r="D29" s="77">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
